--- a/RubberDuck/Plan Pracy.xlsx
+++ b/RubberDuck/Plan Pracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\teamProgramming\RubberDuck\RubberDuck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB4CA2-3CEC-4EEB-8BD2-04A9B1DDC199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A6568-6834-4669-9BF9-383661BEE0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -419,27 +425,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +459,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -458,12 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -747,7 +756,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,377 +766,377 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+      <c r="B12" s="14">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+      <c r="B13" s="14">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
+      <c r="B14" s="14">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+      <c r="B15" s="14">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
+      <c r="B16" s="14">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <v>12</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <v>17</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+      <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
+      <c r="B28" s="1">
         <v>19</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>20</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RubberDuck/Plan Pracy.xlsx
+++ b/RubberDuck/Plan Pracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\teamProgramming\RubberDuck\RubberDuck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A6568-6834-4669-9BF9-383661BEE0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8893BC0-1AB8-40F6-A32B-AA3CFFCB63E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -425,12 +431,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -441,12 +446,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,6 +474,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -756,7 +764,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,348 +774,363 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="2"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
+      <c r="B13" s="29">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+      <c r="B14" s="29">
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>6</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>12</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>13</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="2"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="2"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="2"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="2"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="2"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>19</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="2"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>20</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="4"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -1122,21 +1145,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
